--- a/doc/VRC-NM边缘计算节点系统软件开发需求汇总表_第二轮开发v0.3-1209.xlsx
+++ b/doc/VRC-NM边缘计算节点系统软件开发需求汇总表_第二轮开发v0.3-1209.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19845" windowHeight="7245" tabRatio="722" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="722" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="7" r:id="rId1"/>
@@ -3566,11 +3566,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -3733,14 +3733,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3754,7 +3747,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3765,6 +3772,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3783,22 +3795,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3827,6 +3826,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3836,8 +3843,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3851,8 +3865,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3861,21 +3876,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3956,19 +3956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3980,7 +3980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3992,37 +3998,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4040,13 +4034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4058,25 +4052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4088,7 +4064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4112,13 +4094,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4130,7 +4118,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4488,6 +4488,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4499,6 +4508,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4536,17 +4556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4558,15 +4567,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4593,43 +4593,43 @@
     <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4641,98 +4641,98 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="35" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5027,7 +5027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="7" borderId="20" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="24" fillId="7" borderId="20" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="24" fillId="7" borderId="21" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5048,10 +5048,10 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="9" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="24" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="24" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="25" fillId="0" borderId="5" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5060,7 +5060,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5075,10 +5075,10 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="25" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="26" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="26" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="27" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="27" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5087,13 +5087,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="28" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="52" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="26" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyBorder="1">
@@ -5192,7 +5192,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>460958</xdr:colOff>
       <xdr:row>406</xdr:row>
-      <xdr:rowOff>136521</xdr:rowOff>
+      <xdr:rowOff>166828</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5209,7 +5209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="175302545"/>
+          <a:off x="0" y="106970830"/>
           <a:ext cx="10783570" cy="5405120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5247,7 +5247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14116685" y="115637310"/>
+          <a:off x="14116685" y="67458590"/>
           <a:ext cx="6103620" cy="3743960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6040,13 +6040,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6166,7 +6166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="49.5" spans="1:14">
+    <row r="4" ht="49.5" hidden="1" spans="1:14">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" ht="66" spans="1:11">
+    <row r="7" ht="66" hidden="1" spans="1:11">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -6287,7 +6287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" hidden="1" spans="1:11">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" hidden="1" spans="1:11">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
@@ -6331,7 +6331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" hidden="1" spans="1:11">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" ht="49.5" spans="1:11">
+    <row r="21" ht="49.5" hidden="1" spans="1:11">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" ht="49.5" spans="1:11">
+    <row r="22" ht="49.5" hidden="1" spans="1:11">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" ht="45" customHeight="1" spans="1:11">
+    <row r="28" ht="45" hidden="1" customHeight="1" spans="1:11">
       <c r="A28" s="17"/>
       <c r="B28" s="19" t="s">
         <v>105</v>
@@ -6744,7 +6744,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" hidden="1" spans="1:11">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="K29" s="34"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" hidden="1" spans="1:11">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" hidden="1" spans="1:11">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="K31" s="34"/>
     </row>
-    <row r="32" ht="33" spans="1:11">
+    <row r="32" ht="33" hidden="1" spans="1:11">
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="K32" s="34"/>
     </row>
-    <row r="33" ht="33" spans="1:11">
+    <row r="33" ht="33" hidden="1" spans="1:11">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19" t="s">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="K33" s="34"/>
     </row>
-    <row r="34" ht="33" spans="1:11">
+    <row r="34" ht="33" hidden="1" spans="1:11">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="K34" s="34"/>
     </row>
-    <row r="35" ht="33" spans="1:11">
+    <row r="35" ht="33" hidden="1" spans="1:11">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="K37" s="36"/>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:11">
+    <row r="38" ht="15" hidden="1" customHeight="1" spans="1:11">
       <c r="A38" s="17"/>
       <c r="B38" s="19" t="s">
         <v>131</v>
@@ -6967,7 +6967,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" ht="33" spans="1:11">
+    <row r="39" ht="33" hidden="1" spans="1:11">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="K39" s="34"/>
     </row>
-    <row r="40" ht="82.5" spans="1:11">
+    <row r="40" ht="82.5" hidden="1" spans="1:11">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="K40" s="34"/>
     </row>
-    <row r="41" ht="33" spans="1:11">
+    <row r="41" ht="33" hidden="1" spans="1:11">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="K41" s="34"/>
     </row>
-    <row r="42" ht="33" spans="1:11">
+    <row r="42" ht="33" hidden="1" spans="1:11">
       <c r="A42" s="17"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="K42" s="34"/>
     </row>
-    <row r="43" ht="33" spans="1:11">
+    <row r="43" ht="33" hidden="1" spans="1:11">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="K47" s="34"/>
     </row>
-    <row r="48" ht="33" spans="1:11">
+    <row r="48" ht="33" hidden="1" spans="1:11">
       <c r="A48" s="17"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="K48" s="34"/>
     </row>
-    <row r="49" ht="33" spans="1:11">
+    <row r="49" ht="33" hidden="1" spans="1:11">
       <c r="A49" s="17"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -7232,7 +7232,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" ht="34" customHeight="1" spans="1:11">
+    <row r="51" ht="34" hidden="1" customHeight="1" spans="1:11">
       <c r="A51" s="17"/>
       <c r="B51" s="19" t="s">
         <v>159</v>
@@ -7258,7 +7258,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" ht="33" spans="1:11">
+    <row r="52" ht="33" hidden="1" spans="1:11">
       <c r="A52" s="17"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="K52" s="22"/>
     </row>
-    <row r="53" ht="33" spans="1:11">
+    <row r="53" ht="33" hidden="1" spans="1:11">
       <c r="A53" s="17"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" ht="33" spans="1:11">
+    <row r="54" ht="33" hidden="1" spans="1:11">
       <c r="A54" s="17"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="K54" s="23"/>
     </row>
-    <row r="55" ht="53.25" customHeight="1" spans="1:11">
+    <row r="55" ht="90" customHeight="1" spans="1:11">
       <c r="A55" s="17"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19" t="s">
@@ -7346,7 +7346,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="47.25" customHeight="1" spans="1:11">
+    <row r="56" ht="90" customHeight="1" spans="1:11">
       <c r="A56" s="17"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -7596,7 +7596,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" hidden="1" spans="1:12">
       <c r="A67" s="17"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
@@ -7620,7 +7620,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" hidden="1" spans="1:11">
       <c r="A68" s="17"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="K68" s="28"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" hidden="1" spans="1:12">
       <c r="A69" s="17"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -7665,7 +7665,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" hidden="1" spans="1:11">
       <c r="A70" s="17"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -7688,7 +7688,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" hidden="1" spans="1:11">
       <c r="A71" s="17"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="K71" s="28"/>
     </row>
-    <row r="72" ht="49.5" spans="1:12">
+    <row r="72" ht="49.5" hidden="1" spans="1:12">
       <c r="A72" s="17"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -7733,7 +7733,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" hidden="1" spans="1:11">
       <c r="A73" s="17"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="K73" s="28"/>
     </row>
-    <row r="74" ht="33" spans="1:12">
+    <row r="74" ht="33" hidden="1" spans="1:12">
       <c r="A74" s="17"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -7774,7 +7774,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" hidden="1" spans="1:11">
       <c r="A75" s="17"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19" t="s">
@@ -7799,7 +7799,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" hidden="1" spans="1:11">
       <c r="A76" s="17"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="K76" s="28"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" hidden="1" spans="1:11">
       <c r="A77" s="17"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -7841,7 +7841,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" ht="33" spans="1:11">
+    <row r="78" ht="33" hidden="1" spans="1:11">
       <c r="A78" s="17"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -7864,7 +7864,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" ht="33" spans="1:11">
+    <row r="79" ht="33" hidden="1" spans="1:11">
       <c r="A79" s="17"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -7885,7 +7885,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" hidden="1" spans="1:12">
       <c r="A80" s="17"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -7909,7 +7909,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" hidden="1" spans="1:11">
       <c r="A81" s="17"/>
       <c r="B81" s="19"/>
       <c r="C81" s="37" t="s">
@@ -7930,7 +7930,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="82" ht="18.6" customHeight="1" spans="1:12">
+    <row r="82" ht="18.6" hidden="1" customHeight="1" spans="1:12">
       <c r="A82" s="17"/>
       <c r="B82" s="19"/>
       <c r="C82" s="38"/>
@@ -7952,7 +7952,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="83" ht="33" spans="1:12">
+    <row r="83" ht="33" hidden="1" spans="1:12">
       <c r="A83" s="17"/>
       <c r="B83" s="19"/>
       <c r="C83" s="38"/>
@@ -7972,7 +7972,7 @@
       </c>
       <c r="L83" s="31"/>
     </row>
-    <row r="84" ht="33" spans="1:12">
+    <row r="84" ht="33" hidden="1" spans="1:12">
       <c r="A84" s="17"/>
       <c r="B84" s="19"/>
       <c r="C84" s="38"/>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="L84" s="31"/>
     </row>
-    <row r="85" ht="33" spans="1:12">
+    <row r="85" ht="33" hidden="1" spans="1:12">
       <c r="A85" s="17"/>
       <c r="B85" s="19"/>
       <c r="C85" s="38"/>
@@ -8010,7 +8010,7 @@
       <c r="K85" s="28"/>
       <c r="L85" s="43"/>
     </row>
-    <row r="86" ht="33" spans="1:12">
+    <row r="86" ht="33" hidden="1" spans="1:12">
       <c r="A86" s="17"/>
       <c r="B86" s="19"/>
       <c r="C86" s="40"/>
@@ -8026,7 +8026,7 @@
       <c r="K86" s="28"/>
       <c r="L86" s="43"/>
     </row>
-    <row r="87" ht="66" spans="1:11">
+    <row r="87" ht="66" hidden="1" spans="1:11">
       <c r="A87" s="17"/>
       <c r="B87" s="19"/>
       <c r="C87" s="37" t="s">
@@ -8049,7 +8049,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" ht="33" spans="1:11">
+    <row r="88" ht="33" hidden="1" spans="1:11">
       <c r="A88" s="17"/>
       <c r="B88" s="19"/>
       <c r="C88" s="38"/>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="K88" s="28"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" hidden="1" spans="1:11">
       <c r="A89" s="17"/>
       <c r="B89" s="19"/>
       <c r="C89" s="40"/>
@@ -8089,7 +8089,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" hidden="1" spans="1:11">
       <c r="A90" s="17"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19" t="s">
@@ -8114,7 +8114,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" hidden="1" spans="1:11">
       <c r="A91" s="17"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="K91" s="28"/>
     </row>
-    <row r="92" ht="82.5" spans="1:12">
+    <row r="92" ht="82.5" hidden="1" spans="1:12">
       <c r="A92" s="17"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19" t="s">
@@ -8161,7 +8161,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" hidden="1" spans="1:11">
       <c r="A93" s="17"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="K95" s="28"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" hidden="1" spans="1:11">
       <c r="A96" s="17"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19" t="s">
@@ -8253,7 +8253,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" hidden="1" spans="1:11">
       <c r="A97" s="17"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="K97" s="34"/>
     </row>
-    <row r="98" ht="33" spans="1:12">
+    <row r="98" ht="33" hidden="1" spans="1:12">
       <c r="A98" s="17"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -8294,7 +8294,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" ht="33" spans="1:11">
+    <row r="99" ht="33" hidden="1" spans="1:11">
       <c r="A99" s="17"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="K99" s="34"/>
     </row>
-    <row r="100" ht="33" spans="1:11">
+    <row r="100" ht="33" hidden="1" spans="1:11">
       <c r="A100" s="17"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="K100" s="34"/>
     </row>
-    <row r="101" ht="33" spans="1:11">
+    <row r="101" ht="33" hidden="1" spans="1:11">
       <c r="A101" s="17"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="K101" s="33"/>
     </row>
-    <row r="102" ht="33" spans="1:11">
+    <row r="102" ht="33" hidden="1" spans="1:11">
       <c r="A102" s="17"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19" t="s">
@@ -8376,7 +8376,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" ht="33" spans="1:11">
+    <row r="103" ht="33" hidden="1" spans="1:11">
       <c r="A103" s="17"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="K103" s="34"/>
     </row>
-    <row r="104" ht="33" spans="1:11">
+    <row r="104" ht="33" hidden="1" spans="1:11">
       <c r="A104" s="17"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="K104" s="33"/>
     </row>
-    <row r="105" ht="30" customHeight="1" spans="1:11">
+    <row r="105" ht="30" hidden="1" customHeight="1" spans="1:11">
       <c r="A105" s="17"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19" t="s">
@@ -8439,7 +8439,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="106" ht="33" spans="1:11">
+    <row r="106" ht="33" hidden="1" spans="1:11">
       <c r="A106" s="17"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="K106" s="33"/>
     </row>
-    <row r="107" ht="33" spans="1:11">
+    <row r="107" ht="33" hidden="1" spans="1:11">
       <c r="A107" s="17"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19" t="s">
@@ -8485,7 +8485,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="108" ht="49.5" spans="1:11">
+    <row r="108" ht="49.5" hidden="1" spans="1:11">
       <c r="A108" s="17"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -8508,7 +8508,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="109" ht="33" spans="1:11">
+    <row r="109" ht="33" hidden="1" spans="1:11">
       <c r="A109" s="17"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -8531,7 +8531,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" hidden="1" spans="1:11">
       <c r="A110" s="17"/>
       <c r="B110" s="19" t="s">
         <v>298</v>
@@ -8558,7 +8558,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" ht="33" spans="1:12">
+    <row r="111" ht="33" hidden="1" spans="1:12">
       <c r="A111" s="17"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -8582,7 +8582,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" hidden="1" spans="1:11">
       <c r="A112" s="17"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19" t="s">
@@ -8607,7 +8607,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" hidden="1" spans="1:11">
       <c r="A113" s="17"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="K113" s="33"/>
     </row>
-    <row r="114" ht="33" spans="1:11">
+    <row r="114" ht="33" hidden="1" spans="1:11">
       <c r="A114" s="17"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19" t="s">
@@ -8651,7 +8651,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="115" ht="33" spans="1:11">
+    <row r="115" ht="33" hidden="1" spans="1:11">
       <c r="A115" s="17"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="K115" s="28"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" hidden="1" spans="1:11">
       <c r="A116" s="17"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19" t="s">
@@ -8695,7 +8695,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" hidden="1" spans="1:11">
       <c r="A117" s="17"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="K117" s="34"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" hidden="1" spans="1:11">
       <c r="A118" s="17"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="K118" s="33"/>
     </row>
-    <row r="119" ht="18" customHeight="1" spans="1:12">
+    <row r="119" ht="18" hidden="1" customHeight="1" spans="1:12">
       <c r="A119" s="17"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19" t="s">
@@ -8765,7 +8765,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" hidden="1" spans="1:11">
       <c r="A120" s="17"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="K120" s="33"/>
     </row>
-    <row r="121" ht="33" spans="1:11">
+    <row r="121" ht="33" hidden="1" spans="1:11">
       <c r="A121" s="17"/>
       <c r="B121" s="19" t="s">
         <v>325</v>
@@ -8809,7 +8809,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="122" ht="33" spans="1:11">
+    <row r="122" ht="33" hidden="1" spans="1:11">
       <c r="A122" s="17"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -8830,7 +8830,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="123" ht="33" spans="1:11">
+    <row r="123" ht="33" hidden="1" spans="1:11">
       <c r="A123" s="17"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -8853,7 +8853,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="124" ht="33" spans="1:11">
+    <row r="124" ht="33" hidden="1" spans="1:11">
       <c r="A124" s="17"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="K144" s="28"/>
     </row>
-    <row r="145" ht="33" spans="1:11">
+    <row r="145" ht="33" hidden="1" spans="1:11">
       <c r="A145" s="17"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -9349,7 +9349,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="146" ht="66" spans="1:12">
+    <row r="146" ht="66" hidden="1" spans="1:12">
       <c r="A146" s="17"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -9375,7 +9375,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="147" ht="66" spans="1:11">
+    <row r="147" ht="66" hidden="1" spans="1:11">
       <c r="A147" s="17"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -9396,7 +9396,7 @@
       </c>
       <c r="K147" s="28"/>
     </row>
-    <row r="148" ht="49.5" spans="1:11">
+    <row r="148" ht="49.5" hidden="1" spans="1:11">
       <c r="A148" s="17"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="K148" s="28"/>
     </row>
-    <row r="149" ht="82.5" spans="1:11">
+    <row r="149" ht="82.5" hidden="1" spans="1:11">
       <c r="A149" s="17"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="K149" s="28"/>
     </row>
-    <row r="150" ht="132" spans="1:12">
+    <row r="150" ht="132" hidden="1" spans="1:12">
       <c r="A150" s="17"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -9462,7 +9462,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="151" ht="82.5" spans="1:11">
+    <row r="151" ht="82.5" hidden="1" spans="1:11">
       <c r="A151" s="17"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="K151" s="34"/>
     </row>
-    <row r="152" ht="66" spans="1:11">
+    <row r="152" ht="66" hidden="1" spans="1:11">
       <c r="A152" s="17"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -9525,7 +9525,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" hidden="1" spans="1:11">
       <c r="A154" s="17"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="K154" s="28"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" hidden="1" spans="1:11">
       <c r="A155" s="17"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -9702,7 +9702,7 @@
       </c>
       <c r="K162" s="28"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" hidden="1" spans="1:11">
       <c r="A163" s="17"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="K163" s="28"/>
     </row>
-    <row r="164" ht="33" spans="1:11">
+    <row r="164" ht="33" hidden="1" spans="1:11">
       <c r="A164" s="17"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="K164" s="28"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" hidden="1" spans="1:11">
       <c r="A165" s="17"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="K170" s="28"/>
     </row>
-    <row r="171" ht="99" spans="1:11">
+    <row r="171" ht="99" hidden="1" spans="1:11">
       <c r="A171" s="17"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19" t="s">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="K171" s="28"/>
     </row>
-    <row r="172" ht="115.5" spans="1:11">
+    <row r="172" ht="115.5" hidden="1" spans="1:11">
       <c r="A172" s="17"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -9904,7 +9904,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="173" ht="264" spans="1:11">
+    <row r="173" ht="264" hidden="1" spans="1:11">
       <c r="A173" s="17"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -9925,7 +9925,7 @@
       </c>
       <c r="K173" s="28"/>
     </row>
-    <row r="174" ht="132" spans="1:11">
+    <row r="174" ht="132" hidden="1" spans="1:11">
       <c r="A174" s="17"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -9948,7 +9948,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="175" ht="49.5" spans="1:11">
+    <row r="175" ht="49.5" hidden="1" spans="1:11">
       <c r="A175" s="17"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -9969,7 +9969,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" hidden="1" spans="1:11">
       <c r="A176" s="17"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -9990,7 +9990,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" hidden="1" spans="1:11">
       <c r="A177" s="17"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="K177" s="28"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" hidden="1" spans="1:11">
       <c r="A178" s="17"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="K178" s="28"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" hidden="1" spans="1:11">
       <c r="A179" s="17"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="K184" s="33"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" hidden="1" spans="1:11">
       <c r="A185" s="17"/>
       <c r="B185" s="19" t="s">
         <v>460</v>
@@ -11298,7 +11298,7 @@
       </c>
       <c r="K235" s="28"/>
     </row>
-    <row r="236" ht="33" spans="1:11">
+    <row r="236" ht="33" hidden="1" spans="1:11">
       <c r="A236" s="17"/>
       <c r="B236" s="17"/>
       <c r="C236" s="19"/>
@@ -11784,7 +11784,7 @@
       </c>
       <c r="K258" s="28"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" hidden="1" spans="1:11">
       <c r="A259" s="17"/>
       <c r="B259" s="46"/>
       <c r="C259" s="19"/>
@@ -11805,7 +11805,7 @@
       </c>
       <c r="K259" s="28"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" hidden="1" spans="1:11">
       <c r="A260" s="17"/>
       <c r="B260" s="46"/>
       <c r="C260" s="19"/>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="K278" s="34"/>
     </row>
-    <row r="279" ht="33" spans="1:11">
+    <row r="279" ht="33" hidden="1" spans="1:11">
       <c r="A279" s="17"/>
       <c r="B279" s="46"/>
       <c r="C279" s="19"/>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="K317" s="28"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" hidden="1" spans="1:11">
       <c r="A318" s="17"/>
       <c r="B318" s="19" t="s">
         <v>702</v>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="K318" s="28"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" hidden="1" spans="1:11">
       <c r="A319" s="17"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19" t="s">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="K319" s="28"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" hidden="1" spans="1:11">
       <c r="A320" s="17"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19" t="s">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="K320" s="28"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" hidden="1" spans="1:11">
       <c r="A321" s="17"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19" t="s">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="K321" s="28"/>
     </row>
-    <row r="322" ht="33" spans="1:12">
+    <row r="322" ht="33" hidden="1" spans="1:12">
       <c r="A322" s="17"/>
       <c r="B322" s="19" t="s">
         <v>708</v>
@@ -13125,7 +13125,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" hidden="1" spans="1:11">
       <c r="A323" s="17"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19" t="s">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="K323" s="28"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" hidden="1" spans="1:11">
       <c r="A324" s="17"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19" t="s">
@@ -13165,7 +13165,7 @@
       </c>
       <c r="K324" s="28"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" hidden="1" spans="1:11">
       <c r="A325" s="17"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19" t="s">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="K325" s="28"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" hidden="1" spans="1:11">
       <c r="A326" s="17"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19" t="s">
@@ -13205,7 +13205,7 @@
       </c>
       <c r="K326" s="28"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" hidden="1" spans="1:11">
       <c r="A327" s="17"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19" t="s">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="K327" s="28"/>
     </row>
-    <row r="328" ht="33" spans="1:12">
+    <row r="328" ht="33" hidden="1" spans="1:12">
       <c r="A328" s="17"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19" t="s">
@@ -13248,7 +13248,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="329" ht="33" spans="1:11">
+    <row r="329" ht="33" hidden="1" spans="1:11">
       <c r="A329" s="17"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19" t="s">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="K329" s="28"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" hidden="1" spans="1:11">
       <c r="A330" s="17"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19" t="s">
@@ -13292,7 +13292,7 @@
       </c>
       <c r="K330" s="28"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" hidden="1" spans="1:11">
       <c r="A331" s="17"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19" t="s">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="K331" s="28"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" hidden="1" spans="1:11">
       <c r="A332" s="17"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19" t="s">
@@ -13387,7 +13387,7 @@
       <c r="J335" s="18"/>
       <c r="K335" s="28"/>
     </row>
-    <row r="336" ht="33" spans="1:12">
+    <row r="336" ht="33" hidden="1" spans="1:12">
       <c r="A336" s="17"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19" t="s">
@@ -13411,7 +13411,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" hidden="1" spans="1:11">
       <c r="A337" s="17"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -13428,7 +13428,7 @@
       <c r="J337" s="18"/>
       <c r="K337" s="28"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" hidden="1" spans="1:11">
       <c r="A338" s="17"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -13443,7 +13443,7 @@
       <c r="J338" s="18"/>
       <c r="K338" s="28"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" hidden="1" spans="1:11">
       <c r="A339" s="17"/>
       <c r="B339" s="19" t="s">
         <v>740</v>
@@ -13506,7 +13506,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="342" ht="33" spans="1:12">
+    <row r="342" ht="33" hidden="1" spans="1:12">
       <c r="A342" s="17"/>
       <c r="B342" s="19" t="s">
         <v>746</v>
@@ -13553,7 +13553,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="344" ht="33" spans="1:11">
+    <row r="344" ht="33" hidden="1" spans="1:11">
       <c r="A344" s="17"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19" t="s">
@@ -13576,7 +13576,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" hidden="1" spans="1:11">
       <c r="A345" s="17"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19" t="s">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="K345" s="28"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" hidden="1" spans="1:11">
       <c r="A346" s="17"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19" t="s">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="K350" s="28"/>
     </row>
-    <row r="351" ht="82.5" spans="1:11">
+    <row r="351" ht="82.5" hidden="1" spans="1:11">
       <c r="A351" s="17"/>
       <c r="B351" s="19" t="s">
         <v>765</v>
@@ -13719,7 +13719,7 @@
       </c>
       <c r="K351" s="28"/>
     </row>
-    <row r="352" ht="33" spans="1:11">
+    <row r="352" ht="33" hidden="1" spans="1:11">
       <c r="A352" s="17"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19" t="s">
@@ -13740,7 +13740,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" hidden="1" spans="1:11">
       <c r="A353" s="17"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19" t="s">
@@ -13763,7 +13763,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="354" ht="33" spans="1:11">
+    <row r="354" ht="33" hidden="1" spans="1:11">
       <c r="A354" s="17"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -13782,7 +13782,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" hidden="1" spans="1:11">
       <c r="A355" s="17"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19" t="s">
@@ -13803,7 +13803,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" hidden="1" spans="1:11">
       <c r="A356" s="17"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -13822,7 +13822,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" hidden="1" spans="1:11">
       <c r="A357" s="17"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -13835,7 +13835,7 @@
       <c r="J357" s="18"/>
       <c r="K357" s="28"/>
     </row>
-    <row r="358" ht="49.5" spans="1:11">
+    <row r="358" ht="49.5" hidden="1" spans="1:11">
       <c r="A358" s="19" t="s">
         <v>782</v>
       </c>
@@ -13856,7 +13856,7 @@
       </c>
       <c r="K358" s="28"/>
     </row>
-    <row r="359" ht="66" spans="1:11">
+    <row r="359" ht="66" hidden="1" spans="1:11">
       <c r="A359" s="19"/>
       <c r="B359" s="19"/>
       <c r="C359" s="20" t="s">
@@ -13873,7 +13873,7 @@
       </c>
       <c r="K359" s="28"/>
     </row>
-    <row r="360" ht="66" customHeight="1" spans="1:11">
+    <row r="360" ht="66" hidden="1" customHeight="1" spans="1:11">
       <c r="A360" s="19"/>
       <c r="B360" s="19" t="s">
         <v>786</v>
@@ -13892,7 +13892,7 @@
       </c>
       <c r="K360" s="28"/>
     </row>
-    <row r="361" ht="49.5" spans="1:11">
+    <row r="361" hidden="1" spans="1:11">
       <c r="A361" s="19"/>
       <c r="B361" s="19" t="s">
         <v>788</v>
@@ -13913,7 +13913,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="362" ht="49.5" customHeight="1" spans="1:11">
+    <row r="362" ht="49.5" hidden="1" customHeight="1" spans="1:11">
       <c r="A362" s="19"/>
       <c r="B362" s="19" t="s">
         <v>791</v>
@@ -13930,7 +13930,7 @@
       <c r="J362" s="18"/>
       <c r="K362" s="28"/>
     </row>
-    <row r="363" ht="33" customHeight="1" spans="1:11">
+    <row r="363" ht="33" hidden="1" customHeight="1" spans="1:11">
       <c r="A363" s="19"/>
       <c r="B363" s="19"/>
       <c r="C363" s="20" t="s">
@@ -13945,7 +13945,7 @@
       <c r="J363" s="18"/>
       <c r="K363" s="28"/>
     </row>
-    <row r="364" ht="33" customHeight="1" spans="1:11">
+    <row r="364" ht="33" hidden="1" customHeight="1" spans="1:11">
       <c r="A364" s="19"/>
       <c r="B364" s="19"/>
       <c r="C364" s="20" t="s">
@@ -13960,7 +13960,7 @@
       <c r="J364" s="18"/>
       <c r="K364" s="28"/>
     </row>
-    <row r="365" ht="33" customHeight="1" spans="1:11">
+    <row r="365" ht="33" hidden="1" customHeight="1" spans="1:11">
       <c r="A365" s="19"/>
       <c r="B365" s="19"/>
       <c r="C365" s="20" t="s">
@@ -13975,7 +13975,7 @@
       <c r="J365" s="18"/>
       <c r="K365" s="28"/>
     </row>
-    <row r="366" ht="33" spans="1:11">
+    <row r="366" ht="33" hidden="1" spans="1:11">
       <c r="A366" s="19"/>
       <c r="B366" s="19"/>
       <c r="C366" s="20" t="s">
@@ -13990,7 +13990,7 @@
       <c r="J366" s="18"/>
       <c r="K366" s="28"/>
     </row>
-    <row r="367" ht="49.5" spans="1:11">
+    <row r="367" ht="49.5" hidden="1" spans="1:11">
       <c r="A367" s="19"/>
       <c r="B367" s="19"/>
       <c r="C367" s="20" t="s">
@@ -14005,7 +14005,7 @@
       <c r="J367" s="18"/>
       <c r="K367" s="28"/>
     </row>
-    <row r="368" ht="82.5" spans="1:11">
+    <row r="368" ht="82.5" hidden="1" spans="1:11">
       <c r="A368" s="19"/>
       <c r="B368" s="19" t="s">
         <v>798</v>
@@ -14022,7 +14022,7 @@
       <c r="J368" s="18"/>
       <c r="K368" s="28"/>
     </row>
-    <row r="369" ht="33" spans="1:11">
+    <row r="369" ht="33" hidden="1" spans="1:11">
       <c r="A369" s="19"/>
       <c r="B369" s="19"/>
       <c r="C369" s="20" t="s">
@@ -14039,7 +14039,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" hidden="1" spans="1:11">
       <c r="A370" s="19"/>
       <c r="B370" s="19" t="s">
         <v>802</v>
@@ -14056,7 +14056,7 @@
       <c r="J370" s="18"/>
       <c r="K370" s="28"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" hidden="1" spans="1:11">
       <c r="A371" s="19"/>
       <c r="B371" s="19"/>
       <c r="C371" s="59" t="s">
@@ -14071,7 +14071,7 @@
       <c r="J371" s="18"/>
       <c r="K371" s="28"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" hidden="1" spans="1:11">
       <c r="A372" s="19"/>
       <c r="B372" s="19"/>
       <c r="C372" s="59" t="s">
@@ -14086,7 +14086,7 @@
       <c r="J372" s="18"/>
       <c r="K372" s="28"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" hidden="1" spans="1:11">
       <c r="A373" s="19"/>
       <c r="B373" s="19"/>
       <c r="C373" s="59" t="s">
@@ -14101,7 +14101,7 @@
       <c r="J373" s="18"/>
       <c r="K373" s="28"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" hidden="1" spans="1:11">
       <c r="A374" s="19"/>
       <c r="B374" s="19"/>
       <c r="C374" s="59" t="s">
@@ -14116,7 +14116,7 @@
       <c r="J374" s="18"/>
       <c r="K374" s="28"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" hidden="1" spans="1:11">
       <c r="A375" s="18"/>
       <c r="B375" s="19"/>
       <c r="C375" s="20"/>
@@ -14129,7 +14129,7 @@
       <c r="J375" s="18"/>
       <c r="K375" s="28"/>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" hidden="1" spans="1:11">
       <c r="A376" s="60"/>
       <c r="B376" s="61"/>
       <c r="C376" s="12"/>
@@ -14141,7 +14141,7 @@
       <c r="J376" s="60"/>
       <c r="K376" s="63"/>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" hidden="1" spans="1:11">
       <c r="A377" s="60"/>
       <c r="B377" s="61"/>
       <c r="C377" s="12"/>
@@ -14153,7 +14153,7 @@
       <c r="J377" s="60"/>
       <c r="K377" s="63"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" hidden="1" spans="1:11">
       <c r="A378" s="60"/>
       <c r="B378" s="61"/>
       <c r="C378" s="12"/>
@@ -14165,7 +14165,7 @@
       <c r="J378" s="60"/>
       <c r="K378" s="63"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" hidden="1" spans="1:11">
       <c r="A379" s="60"/>
       <c r="B379" s="61"/>
       <c r="C379" s="12"/>
@@ -14177,7 +14177,7 @@
       <c r="J379" s="60"/>
       <c r="K379" s="63"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" hidden="1" spans="1:11">
       <c r="A380" s="60"/>
       <c r="B380" s="61"/>
       <c r="C380" s="12"/>
@@ -14189,7 +14189,7 @@
       <c r="J380" s="60"/>
       <c r="K380" s="63"/>
     </row>
-    <row r="381" ht="38.25" spans="1:11">
+    <row r="381" ht="38.25" hidden="1" spans="1:11">
       <c r="A381" s="62" t="s">
         <v>808</v>
       </c>
@@ -14206,6 +14206,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K381">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="equal" val="高"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="126">

--- a/doc/VRC-NM边缘计算节点系统软件开发需求汇总表_第二轮开发v0.3-1209.xlsx
+++ b/doc/VRC-NM边缘计算节点系统软件开发需求汇总表_第二轮开发v0.3-1209.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="722" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11820" tabRatio="722" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="853">
   <si>
     <t>Document No</t>
   </si>
@@ -2259,12 +2259,27 @@
     <t>H.264格式</t>
   </si>
   <si>
+    <t>1.上位机或云平台通过摄像机接入模块可增、删、改、查设备，并获取摄像机通道信息；
+2.增、删、改的设备信息实时记录到数据库的设备表中；
+3.摄像机接入模块调用设备厂商SDK接口打开实时视频流数据读取；读取过程结束后，调用设备厂商SDK接口关闭；
+4.解析读取的PS格式封装的视频流数据，将其转换为ES格式封装；
+5.通过平台提供的网络接口将ES格式封装的实时视频数据发送到上位机；
+6.摄像机接入模块完成对同一摄像机源的流分发复用；
+7.上位机接收ES格式封装数据，并使用CPU或GPU解码和播放视频数据；</t>
+  </si>
+  <si>
     <t>云平台获取，上位机获取</t>
   </si>
   <si>
     <t>远程点播指定时段视频</t>
   </si>
   <si>
+    <t>1.上位机或云平台通过查询数据库历史文件表获取可以播放的录像文件列表；
+2.上位机或云平台根据获取的录像文件列表获取需要播放的时间信息，并将信息提交到存储服务模块，由存储服务模块读取相应数据，并发送给上位机或云平台；
+3.上位机接收按存储格式封装的数据，并将其解析为ES数据；
+4.上位机调用CPU或GPU解码和播放视频数据；</t>
+  </si>
+  <si>
     <t>点播已存储的视频</t>
   </si>
   <si>
@@ -2274,6 +2289,12 @@
     <t>PNG格式</t>
   </si>
   <si>
+    <t>1.上位机或云平台通过查询数据库历史文件表获取可以图片文件列表；
+2.上位机或云平台根据获取的录像文件列表获取需要的图片文件；
+3.上位机接收按存储格式封装的数据，并将其解析为PNG数据；
+4.上位机显示PNG图片；</t>
+  </si>
+  <si>
     <t>获取已存储的</t>
   </si>
   <si>
@@ -2283,6 +2304,12 @@
     <t>事件触发存储视频</t>
   </si>
   <si>
+    <t>1.数据推送模块产生事件通知；
+2.事件通知通过平台网络推送到实时视频流预录/延迟录像模块；
+3.实时视频预录/延迟录像模块将数据进行格式化封装；
+4.实时视频预录/延迟录像模块将数据发送到数据库进行存储，并记录下文件对应ID标识；</t>
+  </si>
+  <si>
     <t>接受指令存储视频</t>
   </si>
   <si>
@@ -2290,6 +2317,11 @@
   </si>
   <si>
     <t>接受指令存储照片</t>
+  </si>
+  <si>
+    <t>1.上位机或云平台发送图片抓取到摄像机接入；
+2.摄像机接入模块调用设备厂商SDK接口抓取PNG格式图片；
+3.抓取的PNG图片通过平台网络发送到上位机或云平台；</t>
   </si>
   <si>
     <t>指令开启</t>
@@ -2303,6 +2335,11 @@
   <si>
     <t>循环存储
 接受远程删除指令</t>
+  </si>
+  <si>
+    <t>1.上位机或云平台通过查询数据库获取存储服务的参数配置信息；
+2.参数配置信息支持存储时长、循环存储使能、永久保存使能等参数；
+3.实时视频预录/延迟录像模块定时间隔按照存储配置信息的参数检测存储状态，并将超出存储条件范围的录像数据进行移除；</t>
   </si>
   <si>
     <t>限制存储空间大小，</t>
@@ -3566,9 +3603,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
@@ -3732,6 +3769,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3747,21 +3789,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3774,16 +3802,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3797,17 +3820,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3842,16 +3865,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3867,6 +3882,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3875,7 +3905,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3956,7 +3993,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3968,55 +4047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4034,7 +4071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4046,7 +4089,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4058,79 +4161,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4488,15 +4525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4514,11 +4542,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4541,17 +4576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4585,6 +4611,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4593,19 +4630,19 @@
     <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4614,22 +4651,28 @@
     <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4638,101 +4681,95 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5189,8 +5226,8 @@
       <xdr:rowOff>455468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>460958</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1648408</xdr:colOff>
       <xdr:row>406</xdr:row>
       <xdr:rowOff>166828</xdr:rowOff>
     </xdr:to>
@@ -5209,7 +5246,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="106970830"/>
+          <a:off x="0" y="120801130"/>
           <a:ext cx="10783570" cy="5405120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5247,7 +5284,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14116685" y="67458590"/>
+          <a:off x="15458440" y="67458590"/>
           <a:ext cx="6103620" cy="3743960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6044,9 +6081,9 @@
   <dimension ref="A1:N381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6056,7 +6093,7 @@
     <col min="3" max="3" width="21.7333333333333" style="13" customWidth="1"/>
     <col min="4" max="4" width="19.475" style="13" customWidth="1"/>
     <col min="5" max="6" width="25.7" style="13" customWidth="1"/>
-    <col min="7" max="7" width="6.08333333333333" style="13" customWidth="1"/>
+    <col min="7" max="7" width="23.6916666666667" style="13" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="13" customWidth="1"/>
     <col min="9" max="9" width="25.7" style="13" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="15.65" style="14" customWidth="1"/>
@@ -10697,7 +10734,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" ht="313.5" spans="1:11">
       <c r="A208" s="17"/>
       <c r="B208" s="55" t="s">
         <v>512</v>
@@ -10711,7 +10748,9 @@
       <c r="E208" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="F208" s="20"/>
+      <c r="F208" s="20" t="s">
+        <v>516</v>
+      </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20" t="s">
         <v>36</v>
@@ -10721,20 +10760,22 @@
         <v>36</v>
       </c>
       <c r="K208" s="28" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="209" ht="198" spans="1:11">
       <c r="A209" s="17"/>
       <c r="B209" s="55"/>
       <c r="C209" s="19"/>
       <c r="D209" s="20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="F209" s="20"/>
+      <c r="F209" s="20" t="s">
+        <v>519</v>
+      </c>
       <c r="G209" s="20"/>
       <c r="H209" s="20" t="s">
         <v>36</v>
@@ -10744,20 +10785,22 @@
         <v>36</v>
       </c>
       <c r="K209" s="28" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="210" ht="132" spans="1:11">
       <c r="A210" s="17"/>
       <c r="B210" s="55"/>
       <c r="C210" s="19"/>
       <c r="D210" s="20" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E210" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="F210" s="20"/>
+        <v>522</v>
+      </c>
+      <c r="F210" s="20" t="s">
+        <v>523</v>
+      </c>
       <c r="G210" s="20"/>
       <c r="H210" s="20" t="s">
         <v>36</v>
@@ -10767,22 +10810,24 @@
         <v>36</v>
       </c>
       <c r="K210" s="28" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="211" ht="132" spans="1:11">
       <c r="A211" s="17"/>
       <c r="B211" s="55"/>
       <c r="C211" s="19" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E211" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="F211" s="20"/>
+      <c r="F211" s="20" t="s">
+        <v>527</v>
+      </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20" t="s">
         <v>36</v>
@@ -10793,17 +10838,19 @@
       </c>
       <c r="K211" s="28"/>
     </row>
-    <row r="212" ht="33" spans="1:11">
+    <row r="212" ht="132" spans="1:11">
       <c r="A212" s="17"/>
       <c r="B212" s="55"/>
       <c r="C212" s="19"/>
       <c r="D212" s="20" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E212" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="F212" s="20"/>
+      <c r="F212" s="20" t="s">
+        <v>527</v>
+      </c>
       <c r="G212" s="20"/>
       <c r="H212" s="20" t="s">
         <v>36</v>
@@ -10813,20 +10860,22 @@
         <v>36</v>
       </c>
       <c r="K212" s="28" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="213" ht="99" spans="1:11">
       <c r="A213" s="17"/>
       <c r="B213" s="55"/>
       <c r="C213" s="19"/>
       <c r="D213" s="20" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E213" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="F213" s="20"/>
+        <v>522</v>
+      </c>
+      <c r="F213" s="20" t="s">
+        <v>531</v>
+      </c>
       <c r="G213" s="20"/>
       <c r="H213" s="20" t="s">
         <v>36</v>
@@ -10836,20 +10885,22 @@
         <v>36</v>
       </c>
       <c r="K213" s="28" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="214" ht="99" spans="1:11">
       <c r="A214" s="17"/>
       <c r="B214" s="55"/>
       <c r="C214" s="19"/>
       <c r="D214" s="20" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E214" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="F214" s="20"/>
+        <v>522</v>
+      </c>
+      <c r="F214" s="20" t="s">
+        <v>531</v>
+      </c>
       <c r="G214" s="20"/>
       <c r="H214" s="20" t="s">
         <v>36</v>
@@ -10860,17 +10911,19 @@
       </c>
       <c r="K214" s="28"/>
     </row>
-    <row r="215" ht="33" spans="1:12">
+    <row r="215" ht="148.5" spans="1:12">
       <c r="A215" s="17"/>
       <c r="B215" s="55"/>
       <c r="C215" s="19"/>
       <c r="D215" s="20" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="E215" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="F215" s="20"/>
+        <v>535</v>
+      </c>
+      <c r="F215" s="20" t="s">
+        <v>536</v>
+      </c>
       <c r="G215" s="20"/>
       <c r="H215" s="20" t="s">
         <v>36</v>
@@ -10881,7 +10934,7 @@
       </c>
       <c r="K215" s="28"/>
       <c r="L215" s="13" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="216" ht="33" spans="1:11">
@@ -10889,7 +10942,7 @@
       <c r="B216" s="55"/>
       <c r="C216" s="19"/>
       <c r="D216" s="20" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
@@ -10902,19 +10955,19 @@
         <v>36</v>
       </c>
       <c r="K216" s="28" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="217" ht="33" spans="1:11">
       <c r="A217" s="17"/>
       <c r="B217" s="17" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E217" s="41" t="s">
         <v>332</v>
@@ -10929,17 +10982,17 @@
         <v>36</v>
       </c>
       <c r="K217" s="28" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="17"/>
       <c r="B218" s="17"/>
       <c r="C218" s="19" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
@@ -10958,10 +11011,10 @@
       <c r="B219" s="17"/>
       <c r="C219" s="19"/>
       <c r="D219" s="20" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="E219" s="20" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F219" s="20"/>
       <c r="G219" s="20"/>
@@ -10973,20 +11026,20 @@
         <v>36</v>
       </c>
       <c r="K219" s="28" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="17"/>
       <c r="B220" s="17"/>
       <c r="C220" s="19" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E220" s="20" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
@@ -11004,7 +11057,7 @@
       <c r="B221" s="17"/>
       <c r="C221" s="19"/>
       <c r="D221" s="20" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
@@ -11023,7 +11076,7 @@
       <c r="B222" s="17"/>
       <c r="C222" s="19"/>
       <c r="D222" s="20" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -11042,7 +11095,7 @@
       <c r="B223" s="17"/>
       <c r="C223" s="19"/>
       <c r="D223" s="20" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
@@ -11061,7 +11114,7 @@
       <c r="B224" s="17"/>
       <c r="C224" s="19"/>
       <c r="D224" s="19" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
@@ -11079,10 +11132,10 @@
       <c r="A225" s="17"/>
       <c r="B225" s="17"/>
       <c r="C225" s="19" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
@@ -11101,7 +11154,7 @@
       <c r="B226" s="17"/>
       <c r="C226" s="19"/>
       <c r="D226" s="20" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
@@ -11119,10 +11172,10 @@
       <c r="A227" s="17"/>
       <c r="B227" s="17"/>
       <c r="C227" s="19" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
@@ -11141,7 +11194,7 @@
       <c r="B228" s="17"/>
       <c r="C228" s="19"/>
       <c r="D228" s="20" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
@@ -11160,7 +11213,7 @@
       <c r="B229" s="17"/>
       <c r="C229" s="19"/>
       <c r="D229" s="20" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
@@ -11178,10 +11231,10 @@
       <c r="A230" s="17"/>
       <c r="B230" s="17"/>
       <c r="C230" s="19" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
@@ -11194,7 +11247,7 @@
         <v>36</v>
       </c>
       <c r="K230" s="28" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="231" ht="33" spans="1:11">
@@ -11202,7 +11255,7 @@
       <c r="B231" s="17"/>
       <c r="C231" s="19"/>
       <c r="D231" s="20" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
@@ -11215,7 +11268,7 @@
         <v>36</v>
       </c>
       <c r="K231" s="28" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -11223,10 +11276,10 @@
       <c r="B232" s="17"/>
       <c r="C232" s="19"/>
       <c r="D232" s="19" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E232" s="20" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F232" s="20"/>
       <c r="G232" s="20"/>
@@ -11244,7 +11297,7 @@
       <c r="B233" s="17"/>
       <c r="C233" s="19"/>
       <c r="D233" s="20" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
@@ -11262,10 +11315,10 @@
       <c r="A234" s="17"/>
       <c r="B234" s="17"/>
       <c r="C234" s="19" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -11284,7 +11337,7 @@
       <c r="B235" s="17"/>
       <c r="C235" s="19"/>
       <c r="D235" s="20" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
@@ -11303,7 +11356,7 @@
       <c r="B236" s="17"/>
       <c r="C236" s="19"/>
       <c r="D236" s="56" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
@@ -11322,7 +11375,7 @@
       <c r="B237" s="17"/>
       <c r="C237" s="19"/>
       <c r="D237" s="20" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
@@ -11341,7 +11394,7 @@
       <c r="B238" s="17"/>
       <c r="C238" s="19"/>
       <c r="D238" s="20" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
@@ -11360,10 +11413,10 @@
       <c r="B239" s="17"/>
       <c r="C239" s="19"/>
       <c r="D239" s="20" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E239" s="20" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F239" s="20"/>
       <c r="G239" s="20"/>
@@ -11381,10 +11434,10 @@
       <c r="B240" s="17"/>
       <c r="C240" s="19"/>
       <c r="D240" s="20" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E240" s="20" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F240" s="20"/>
       <c r="G240" s="20"/>
@@ -11402,10 +11455,10 @@
       <c r="B241" s="17"/>
       <c r="C241" s="19"/>
       <c r="D241" s="20" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E241" s="20" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F241" s="20"/>
       <c r="G241" s="20"/>
@@ -11423,10 +11476,10 @@
       <c r="B242" s="17"/>
       <c r="C242" s="19"/>
       <c r="D242" s="20" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="E242" s="20" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F242" s="20"/>
       <c r="G242" s="20"/>
@@ -11438,10 +11491,10 @@
         <v>36</v>
       </c>
       <c r="K242" s="28" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="L242" s="13" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -11449,10 +11502,10 @@
       <c r="B243" s="17"/>
       <c r="C243" s="19"/>
       <c r="D243" s="20" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E243" s="20" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F243" s="20"/>
       <c r="G243" s="20"/>
@@ -11468,16 +11521,16 @@
     <row r="244" ht="33" spans="1:11">
       <c r="A244" s="17"/>
       <c r="B244" s="46" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E244" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
@@ -11495,10 +11548,10 @@
       <c r="B245" s="46"/>
       <c r="C245" s="19"/>
       <c r="D245" s="20" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="E245" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
@@ -11516,10 +11569,10 @@
       <c r="B246" s="46"/>
       <c r="C246" s="19"/>
       <c r="D246" s="20" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E246" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
@@ -11537,10 +11590,10 @@
       <c r="B247" s="46"/>
       <c r="C247" s="19"/>
       <c r="D247" s="20" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E247" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F247" s="20"/>
       <c r="G247" s="20"/>
@@ -11558,10 +11611,10 @@
       <c r="B248" s="46"/>
       <c r="C248" s="19"/>
       <c r="D248" s="20" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="E248" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F248" s="20"/>
       <c r="G248" s="20"/>
@@ -11579,10 +11632,10 @@
       <c r="B249" s="46"/>
       <c r="C249" s="19"/>
       <c r="D249" s="20" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E249" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
@@ -11600,10 +11653,10 @@
       <c r="B250" s="46"/>
       <c r="C250" s="19"/>
       <c r="D250" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="E250" s="20" t="s">
         <v>592</v>
-      </c>
-      <c r="E250" s="20" t="s">
-        <v>586</v>
       </c>
       <c r="F250" s="20"/>
       <c r="G250" s="20"/>
@@ -11621,10 +11674,10 @@
       <c r="B251" s="46"/>
       <c r="C251" s="19"/>
       <c r="D251" s="20" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E251" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F251" s="20"/>
       <c r="G251" s="20"/>
@@ -11642,10 +11695,10 @@
       <c r="B252" s="46"/>
       <c r="C252" s="19"/>
       <c r="D252" s="20" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="E252" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F252" s="20"/>
       <c r="G252" s="20"/>
@@ -11663,10 +11716,10 @@
       <c r="B253" s="46"/>
       <c r="C253" s="19"/>
       <c r="D253" s="20" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E253" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
@@ -11684,10 +11737,10 @@
       <c r="B254" s="46"/>
       <c r="C254" s="19"/>
       <c r="D254" s="20" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="E254" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F254" s="20"/>
       <c r="G254" s="20"/>
@@ -11705,10 +11758,10 @@
       <c r="B255" s="46"/>
       <c r="C255" s="19"/>
       <c r="D255" s="20" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="E255" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
@@ -11726,10 +11779,10 @@
       <c r="B256" s="46"/>
       <c r="C256" s="19"/>
       <c r="D256" s="20" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E256" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F256" s="20"/>
       <c r="G256" s="20"/>
@@ -11747,10 +11800,10 @@
       <c r="B257" s="46"/>
       <c r="C257" s="19"/>
       <c r="D257" s="20" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="E257" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F257" s="20"/>
       <c r="G257" s="20"/>
@@ -11768,10 +11821,10 @@
       <c r="B258" s="46"/>
       <c r="C258" s="19"/>
       <c r="D258" s="20" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E258" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F258" s="20"/>
       <c r="G258" s="20"/>
@@ -11789,10 +11842,10 @@
       <c r="B259" s="46"/>
       <c r="C259" s="19"/>
       <c r="D259" s="45" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="E259" s="45" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="F259" s="45"/>
       <c r="G259" s="45"/>
@@ -11810,10 +11863,10 @@
       <c r="B260" s="46"/>
       <c r="C260" s="19"/>
       <c r="D260" s="45" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="E260" s="45" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="F260" s="45"/>
       <c r="G260" s="45"/>
@@ -11831,10 +11884,10 @@
       <c r="B261" s="46"/>
       <c r="C261" s="19"/>
       <c r="D261" s="20" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="E261" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
@@ -11852,10 +11905,10 @@
       <c r="B262" s="46"/>
       <c r="C262" s="19"/>
       <c r="D262" s="20" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E262" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
@@ -11873,10 +11926,10 @@
       <c r="B263" s="46"/>
       <c r="C263" s="19"/>
       <c r="D263" s="20" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E263" s="20" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
@@ -11894,10 +11947,10 @@
       <c r="B264" s="46"/>
       <c r="C264" s="19"/>
       <c r="D264" s="20" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="E264" s="20" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
@@ -11909,7 +11962,7 @@
         <v>36</v>
       </c>
       <c r="K264" s="28" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -11917,7 +11970,7 @@
       <c r="B265" s="46"/>
       <c r="C265" s="19"/>
       <c r="D265" s="20" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E265" s="41" t="s">
         <v>332</v>
@@ -11932,7 +11985,7 @@
         <v>36</v>
       </c>
       <c r="K265" s="28" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -11940,7 +11993,7 @@
       <c r="B266" s="46"/>
       <c r="C266" s="19"/>
       <c r="D266" s="20" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E266" s="41" t="s">
         <v>332</v>
@@ -11961,7 +12014,7 @@
       <c r="B267" s="46"/>
       <c r="C267" s="19"/>
       <c r="D267" s="20" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E267" s="41" t="s">
         <v>332</v>
@@ -11982,10 +12035,10 @@
       <c r="B268" s="46"/>
       <c r="C268" s="19"/>
       <c r="D268" s="20" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="E268" s="20" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="F268" s="20"/>
       <c r="G268" s="20"/>
@@ -12003,10 +12056,10 @@
       <c r="B269" s="46"/>
       <c r="C269" s="19"/>
       <c r="D269" s="20" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E269" s="20" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F269" s="20"/>
       <c r="G269" s="20"/>
@@ -12024,7 +12077,7 @@
       <c r="B270" s="46"/>
       <c r="C270" s="19"/>
       <c r="D270" s="20" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
@@ -12043,10 +12096,10 @@
       <c r="B271" s="46"/>
       <c r="C271" s="19"/>
       <c r="D271" s="20" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="E271" s="20" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F271" s="20"/>
       <c r="G271" s="20"/>
@@ -12064,10 +12117,10 @@
       <c r="B272" s="46"/>
       <c r="C272" s="19"/>
       <c r="D272" s="20" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="E272" s="20" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F272" s="20"/>
       <c r="G272" s="20"/>
@@ -12085,10 +12138,10 @@
       <c r="B273" s="46"/>
       <c r="C273" s="19"/>
       <c r="D273" s="20" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E273" s="20" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
@@ -12100,20 +12153,20 @@
         <v>36</v>
       </c>
       <c r="K273" s="28" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="274" ht="33" spans="1:11">
       <c r="A274" s="17"/>
       <c r="B274" s="46"/>
       <c r="C274" s="19" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D274" s="19" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="E274" s="20" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="F274" s="20"/>
       <c r="G274" s="20"/>
@@ -12125,7 +12178,7 @@
         <v>36</v>
       </c>
       <c r="K274" s="32" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -12133,7 +12186,7 @@
       <c r="B275" s="46"/>
       <c r="C275" s="19"/>
       <c r="D275" s="20" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
@@ -12152,7 +12205,7 @@
       <c r="B276" s="46"/>
       <c r="C276" s="19"/>
       <c r="D276" s="20" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -12171,7 +12224,7 @@
       <c r="B277" s="46"/>
       <c r="C277" s="19"/>
       <c r="D277" s="20" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
@@ -12190,7 +12243,7 @@
       <c r="B278" s="46"/>
       <c r="C278" s="19"/>
       <c r="D278" s="20" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
@@ -12209,10 +12262,10 @@
       <c r="B279" s="46"/>
       <c r="C279" s="19"/>
       <c r="D279" s="20" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E279" s="20" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F279" s="20"/>
       <c r="G279" s="20"/>
@@ -12229,10 +12282,10 @@
       <c r="A280" s="17"/>
       <c r="B280" s="46"/>
       <c r="C280" s="19" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
@@ -12245,7 +12298,7 @@
         <v>36</v>
       </c>
       <c r="K280" s="28" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -12253,7 +12306,7 @@
       <c r="B281" s="46"/>
       <c r="C281" s="19"/>
       <c r="D281" s="20" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
@@ -12271,10 +12324,10 @@
       <c r="A282" s="17"/>
       <c r="B282" s="46"/>
       <c r="C282" s="19" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D282" s="20" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
@@ -12293,7 +12346,7 @@
       <c r="B283" s="46"/>
       <c r="C283" s="19"/>
       <c r="D283" s="20" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
@@ -12311,13 +12364,13 @@
       <c r="A284" s="17"/>
       <c r="B284" s="46"/>
       <c r="C284" s="55" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D284" s="45" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E284" s="45" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F284" s="45"/>
       <c r="G284" s="45"/>
@@ -12335,10 +12388,10 @@
       <c r="B285" s="46"/>
       <c r="C285" s="55"/>
       <c r="D285" s="45" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="E285" s="45" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="F285" s="45"/>
       <c r="G285" s="45"/>
@@ -12356,10 +12409,10 @@
       <c r="B286" s="46"/>
       <c r="C286" s="55"/>
       <c r="D286" s="45" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="E286" s="45" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="F286" s="45"/>
       <c r="G286" s="45"/>
@@ -12376,10 +12429,10 @@
       <c r="A287" s="17"/>
       <c r="B287" s="46"/>
       <c r="C287" s="19" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
@@ -12398,7 +12451,7 @@
       <c r="B288" s="46"/>
       <c r="C288" s="19"/>
       <c r="D288" s="20" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -12417,7 +12470,7 @@
       <c r="B289" s="46"/>
       <c r="C289" s="19"/>
       <c r="D289" s="20" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
@@ -12436,7 +12489,7 @@
       <c r="B290" s="46"/>
       <c r="C290" s="19"/>
       <c r="D290" s="20" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -12453,16 +12506,16 @@
     <row r="291" spans="1:11">
       <c r="A291" s="17"/>
       <c r="B291" s="46" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="E291" s="20" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="F291" s="20"/>
       <c r="G291" s="20"/>
@@ -12474,7 +12527,7 @@
         <v>36</v>
       </c>
       <c r="K291" s="28" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -12482,7 +12535,7 @@
       <c r="B292" s="46"/>
       <c r="C292" s="19"/>
       <c r="D292" s="20" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -12501,10 +12554,10 @@
       <c r="B293" s="46"/>
       <c r="C293" s="19"/>
       <c r="D293" s="20" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="E293" s="20" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
@@ -12521,13 +12574,13 @@
       <c r="A294" s="17"/>
       <c r="B294" s="46"/>
       <c r="C294" s="19" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D294" s="20" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="E294" s="20" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F294" s="20"/>
       <c r="G294" s="20"/>
@@ -12545,10 +12598,10 @@
       <c r="B295" s="46"/>
       <c r="C295" s="19"/>
       <c r="D295" s="20" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E295" s="20" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F295" s="20"/>
       <c r="G295" s="20"/>
@@ -12566,7 +12619,7 @@
       <c r="B296" s="46"/>
       <c r="C296" s="19"/>
       <c r="D296" s="20" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -12579,17 +12632,17 @@
         <v>36</v>
       </c>
       <c r="K296" s="28" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="17"/>
       <c r="B297" s="46"/>
       <c r="C297" s="19" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
@@ -12608,7 +12661,7 @@
       <c r="B298" s="46"/>
       <c r="C298" s="19"/>
       <c r="D298" s="20" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -12626,10 +12679,10 @@
       <c r="A299" s="17"/>
       <c r="B299" s="46"/>
       <c r="C299" s="19" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
@@ -12646,13 +12699,13 @@
     <row r="300" spans="1:11">
       <c r="A300" s="17"/>
       <c r="B300" s="19" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
@@ -12671,7 +12724,7 @@
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
       <c r="D301" s="20" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
@@ -12690,7 +12743,7 @@
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
       <c r="D302" s="20" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
@@ -12709,7 +12762,7 @@
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
       <c r="D303" s="20" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
@@ -12728,7 +12781,7 @@
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
       <c r="D304" s="20" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
@@ -12747,7 +12800,7 @@
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
       <c r="D305" s="20" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
@@ -12766,7 +12819,7 @@
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
       <c r="D306" s="20" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
@@ -12784,10 +12837,10 @@
       <c r="A307" s="17"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
@@ -12804,13 +12857,13 @@
     <row r="308" spans="1:11">
       <c r="A308" s="17"/>
       <c r="B308" s="57" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C308" s="55" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="D308" s="45" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="E308" s="58"/>
       <c r="F308" s="58"/>
@@ -12829,7 +12882,7 @@
       <c r="B309" s="57"/>
       <c r="C309" s="55"/>
       <c r="D309" s="45" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="E309" s="58"/>
       <c r="F309" s="58"/>
@@ -12842,20 +12895,20 @@
         <v>36</v>
       </c>
       <c r="K309" s="28" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="17"/>
       <c r="B310" s="57"/>
       <c r="C310" s="55" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="D310" s="55" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="E310" s="45" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="F310" s="45"/>
       <c r="G310" s="45"/>
@@ -12873,10 +12926,10 @@
       <c r="B311" s="57"/>
       <c r="C311" s="55"/>
       <c r="D311" s="55" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E311" s="45" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="F311" s="45"/>
       <c r="G311" s="45"/>
@@ -12894,7 +12947,7 @@
       <c r="B312" s="57"/>
       <c r="C312" s="55"/>
       <c r="D312" s="55" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E312" s="45"/>
       <c r="F312" s="45"/>
@@ -12913,7 +12966,7 @@
       <c r="B313" s="57"/>
       <c r="C313" s="55"/>
       <c r="D313" s="55" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="E313" s="45"/>
       <c r="F313" s="45"/>
@@ -12931,13 +12984,13 @@
       <c r="A314" s="17"/>
       <c r="B314" s="57"/>
       <c r="C314" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="D314" s="55" t="s">
         <v>697</v>
       </c>
-      <c r="D314" s="55" t="s">
-        <v>691</v>
-      </c>
       <c r="E314" s="45" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F314" s="45"/>
       <c r="G314" s="45"/>
@@ -12955,10 +13008,10 @@
       <c r="B315" s="57"/>
       <c r="C315" s="55"/>
       <c r="D315" s="55" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="E315" s="45" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F315" s="45"/>
       <c r="G315" s="45"/>
@@ -12975,10 +13028,10 @@
       <c r="A316" s="17"/>
       <c r="B316" s="57"/>
       <c r="C316" s="55" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D316" s="45" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="E316" s="58"/>
       <c r="F316" s="58"/>
@@ -12997,7 +13050,7 @@
       <c r="B317" s="57"/>
       <c r="C317" s="55"/>
       <c r="D317" s="45" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="E317" s="58"/>
       <c r="F317" s="58"/>
@@ -13014,14 +13067,14 @@
     <row r="318" hidden="1" spans="1:11">
       <c r="A318" s="17"/>
       <c r="B318" s="19" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D318" s="20"/>
       <c r="E318" s="20" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F318" s="20"/>
       <c r="G318" s="20"/>
@@ -13038,11 +13091,11 @@
       <c r="A319" s="17"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D319" s="20"/>
       <c r="E319" s="20" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F319" s="20"/>
       <c r="G319" s="20"/>
@@ -13059,11 +13112,11 @@
       <c r="A320" s="17"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D320" s="20"/>
       <c r="E320" s="20" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F320" s="20"/>
       <c r="G320" s="20"/>
@@ -13080,11 +13133,11 @@
       <c r="A321" s="17"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D321" s="20"/>
       <c r="E321" s="20" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F321" s="20"/>
       <c r="G321" s="20"/>
@@ -13100,14 +13153,14 @@
     <row r="322" ht="33" hidden="1" spans="1:12">
       <c r="A322" s="17"/>
       <c r="B322" s="19" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="D322" s="20"/>
       <c r="E322" s="20" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F322" s="20"/>
       <c r="G322" s="20"/>
@@ -13119,17 +13172,17 @@
         <v>36</v>
       </c>
       <c r="K322" s="13" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="L322" s="28" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="323" hidden="1" spans="1:11">
       <c r="A323" s="17"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D323" s="20"/>
       <c r="E323" s="41" t="s">
@@ -13150,7 +13203,7 @@
       <c r="A324" s="17"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D324" s="20"/>
       <c r="E324" s="20"/>
@@ -13169,7 +13222,7 @@
       <c r="A325" s="17"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="D325" s="20"/>
       <c r="E325" s="20"/>
@@ -13188,11 +13241,11 @@
       <c r="A326" s="17"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="D326" s="20"/>
       <c r="E326" s="20" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F326" s="20"/>
       <c r="G326" s="20"/>
@@ -13209,7 +13262,7 @@
       <c r="A327" s="17"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="D327" s="20"/>
       <c r="E327" s="20"/>
@@ -13228,7 +13281,7 @@
       <c r="A328" s="17"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="D328" s="20"/>
       <c r="E328" s="20"/>
@@ -13242,20 +13295,20 @@
         <v>36</v>
       </c>
       <c r="K328" s="28" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="L328" s="13" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="329" ht="33" hidden="1" spans="1:11">
       <c r="A329" s="17"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D329" s="20" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
@@ -13273,13 +13326,13 @@
       <c r="A330" s="17"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="D330" s="20" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E330" s="20" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="F330" s="20"/>
       <c r="G330" s="20"/>
@@ -13296,7 +13349,7 @@
       <c r="A331" s="17"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D331" s="20"/>
       <c r="E331" s="20"/>
@@ -13315,13 +13368,13 @@
       <c r="A332" s="17"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="D332" s="20" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E332" s="20" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="F332" s="20"/>
       <c r="G332" s="20"/>
@@ -13338,7 +13391,7 @@
       <c r="A333" s="17"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D333" s="20"/>
       <c r="E333" s="20"/>
@@ -13350,14 +13403,14 @@
       <c r="I333" s="20"/>
       <c r="J333" s="18"/>
       <c r="K333" s="28" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="17"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D334" s="20"/>
       <c r="E334" s="20"/>
@@ -13374,7 +13427,7 @@
       <c r="A335" s="17"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D335" s="20"/>
       <c r="E335" s="20"/>
@@ -13391,10 +13444,10 @@
       <c r="A336" s="17"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
@@ -13405,10 +13458,10 @@
       <c r="I336" s="20"/>
       <c r="J336" s="18"/>
       <c r="K336" s="28" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="L336" s="13" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="337" hidden="1" spans="1:11">
@@ -13416,7 +13469,7 @@
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
       <c r="D337" s="20" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
@@ -13446,10 +13499,10 @@
     <row r="339" hidden="1" spans="1:11">
       <c r="A339" s="17"/>
       <c r="B339" s="19" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="D339" s="20"/>
       <c r="E339" s="20"/>
@@ -13468,7 +13521,7 @@
       <c r="A340" s="17"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="D340" s="20"/>
       <c r="E340" s="20"/>
@@ -13487,11 +13540,11 @@
       <c r="A341" s="17"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="D341" s="20"/>
       <c r="E341" s="41" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F341" s="41"/>
       <c r="G341" s="41"/>
@@ -13503,16 +13556,16 @@
         <v>36</v>
       </c>
       <c r="K341" s="28" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="342" ht="33" hidden="1" spans="1:12">
       <c r="A342" s="17"/>
       <c r="B342" s="19" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="D342" s="20"/>
       <c r="E342" s="20"/>
@@ -13526,17 +13579,17 @@
         <v>36</v>
       </c>
       <c r="K342" s="28" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="L342" s="13" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="17"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="D343" s="20"/>
       <c r="E343" s="20"/>
@@ -13550,18 +13603,18 @@
         <v>36</v>
       </c>
       <c r="K343" s="28" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="344" ht="33" hidden="1" spans="1:11">
       <c r="A344" s="17"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D344" s="20"/>
       <c r="E344" s="20" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="20"/>
@@ -13573,14 +13626,14 @@
         <v>36</v>
       </c>
       <c r="K344" s="28" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="345" hidden="1" spans="1:11">
       <c r="A345" s="17"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D345" s="20"/>
       <c r="E345" s="20"/>
@@ -13599,7 +13652,7 @@
       <c r="A346" s="17"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="D346" s="20"/>
       <c r="E346" s="20"/>
@@ -13617,10 +13670,10 @@
     <row r="347" spans="1:11">
       <c r="A347" s="17"/>
       <c r="B347" s="19" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="D347" s="25"/>
       <c r="E347" s="20"/>
@@ -13639,11 +13692,11 @@
       <c r="A348" s="17"/>
       <c r="B348" s="19"/>
       <c r="C348" s="20" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="D348" s="25"/>
       <c r="E348" s="41" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="F348" s="41"/>
       <c r="G348" s="41"/>
@@ -13655,14 +13708,14 @@
         <v>36</v>
       </c>
       <c r="K348" s="28" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="349" ht="33" spans="1:11">
       <c r="A349" s="17"/>
       <c r="B349" s="19"/>
       <c r="C349" s="20" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="D349" s="25"/>
       <c r="E349" s="20"/>
@@ -13676,14 +13729,14 @@
         <v>36</v>
       </c>
       <c r="K349" s="28" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="17"/>
       <c r="B350" s="19"/>
       <c r="C350" s="20" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="D350" s="25"/>
       <c r="E350" s="20"/>
@@ -13701,14 +13754,14 @@
     <row r="351" ht="82.5" hidden="1" spans="1:11">
       <c r="A351" s="17"/>
       <c r="B351" s="19" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C351" s="19" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="D351" s="20"/>
       <c r="E351" s="20" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="20"/>
@@ -13723,11 +13776,11 @@
       <c r="A352" s="17"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D352" s="20"/>
       <c r="E352" s="20" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="20"/>
@@ -13737,20 +13790,20 @@
         <v>36</v>
       </c>
       <c r="K352" s="28" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="353" hidden="1" spans="1:11">
       <c r="A353" s="17"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D353" s="20" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="E353" s="20" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="20"/>
@@ -13760,7 +13813,7 @@
         <v>36</v>
       </c>
       <c r="K353" s="28" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="354" ht="33" hidden="1" spans="1:11">
@@ -13768,7 +13821,7 @@
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
       <c r="D354" s="20" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="E354" s="20"/>
       <c r="F354" s="20"/>
@@ -13779,17 +13832,17 @@
         <v>36</v>
       </c>
       <c r="K354" s="28" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="355" hidden="1" spans="1:11">
       <c r="A355" s="17"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="D355" s="20" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="E355" s="20"/>
       <c r="F355" s="20"/>
@@ -13800,7 +13853,7 @@
         <v>36</v>
       </c>
       <c r="K355" s="28" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="356" hidden="1" spans="1:11">
@@ -13808,7 +13861,7 @@
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
       <c r="D356" s="20" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="E356" s="20"/>
       <c r="F356" s="20"/>
@@ -13819,7 +13872,7 @@
         <v>36</v>
       </c>
       <c r="K356" s="28" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
     <row r="357" hidden="1" spans="1:11">
@@ -13837,13 +13890,13 @@
     </row>
     <row r="358" ht="49.5" hidden="1" spans="1:11">
       <c r="A358" s="19" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="B358" s="19" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C358" s="20" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D358" s="25"/>
       <c r="E358" s="20"/>
@@ -13860,7 +13913,7 @@
       <c r="A359" s="19"/>
       <c r="B359" s="19"/>
       <c r="C359" s="20" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D359" s="25"/>
       <c r="E359" s="20"/>
@@ -13876,10 +13929,10 @@
     <row r="360" ht="66" hidden="1" customHeight="1" spans="1:11">
       <c r="A360" s="19"/>
       <c r="B360" s="19" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C360" s="20" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="D360" s="25"/>
       <c r="E360" s="20"/>
@@ -13895,10 +13948,10 @@
     <row r="361" hidden="1" spans="1:11">
       <c r="A361" s="19"/>
       <c r="B361" s="19" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C361" s="20" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="D361" s="25"/>
       <c r="E361" s="20"/>
@@ -13910,16 +13963,16 @@
         <v>36</v>
       </c>
       <c r="K361" s="28" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="362" ht="49.5" hidden="1" customHeight="1" spans="1:11">
       <c r="A362" s="19"/>
       <c r="B362" s="19" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C362" s="20" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="D362" s="25"/>
       <c r="E362" s="20"/>
@@ -13934,7 +13987,7 @@
       <c r="A363" s="19"/>
       <c r="B363" s="19"/>
       <c r="C363" s="20" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D363" s="25"/>
       <c r="E363" s="20"/>
@@ -13949,7 +14002,7 @@
       <c r="A364" s="19"/>
       <c r="B364" s="19"/>
       <c r="C364" s="20" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="D364" s="25"/>
       <c r="E364" s="20"/>
@@ -13964,7 +14017,7 @@
       <c r="A365" s="19"/>
       <c r="B365" s="19"/>
       <c r="C365" s="20" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="D365" s="25"/>
       <c r="E365" s="20"/>
@@ -13979,7 +14032,7 @@
       <c r="A366" s="19"/>
       <c r="B366" s="19"/>
       <c r="C366" s="20" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="D366" s="25"/>
       <c r="E366" s="20"/>
@@ -13994,7 +14047,7 @@
       <c r="A367" s="19"/>
       <c r="B367" s="19"/>
       <c r="C367" s="20" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D367" s="25"/>
       <c r="E367" s="20"/>
@@ -14008,10 +14061,10 @@
     <row r="368" ht="82.5" hidden="1" spans="1:11">
       <c r="A368" s="19"/>
       <c r="B368" s="19" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C368" s="20" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D368" s="25"/>
       <c r="E368" s="20"/>
@@ -14026,7 +14079,7 @@
       <c r="A369" s="19"/>
       <c r="B369" s="19"/>
       <c r="C369" s="20" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D369" s="25"/>
       <c r="E369" s="20"/>
@@ -14036,16 +14089,16 @@
       <c r="I369" s="20"/>
       <c r="J369" s="18"/>
       <c r="K369" s="28" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="370" hidden="1" spans="1:11">
       <c r="A370" s="19"/>
       <c r="B370" s="19" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C370" s="59" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D370" s="25"/>
       <c r="E370" s="20"/>
@@ -14060,7 +14113,7 @@
       <c r="A371" s="19"/>
       <c r="B371" s="19"/>
       <c r="C371" s="59" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D371" s="25"/>
       <c r="E371" s="20"/>
@@ -14075,7 +14128,7 @@
       <c r="A372" s="19"/>
       <c r="B372" s="19"/>
       <c r="C372" s="59" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D372" s="25"/>
       <c r="E372" s="20"/>
@@ -14090,7 +14143,7 @@
       <c r="A373" s="19"/>
       <c r="B373" s="19"/>
       <c r="C373" s="59" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D373" s="25"/>
       <c r="E373" s="20"/>
@@ -14105,7 +14158,7 @@
       <c r="A374" s="19"/>
       <c r="B374" s="19"/>
       <c r="C374" s="59" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D374" s="25"/>
       <c r="E374" s="20"/>
@@ -14191,7 +14244,7 @@
     </row>
     <row r="381" ht="38.25" hidden="1" spans="1:11">
       <c r="A381" s="62" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="B381" s="62"/>
       <c r="C381" s="62"/>
@@ -14372,158 +14425,158 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C4" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="2" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>816</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="5"/>
       <c r="C18" s="2" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -14531,7 +14584,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="2" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="E22" s="6"/>
     </row>
@@ -14539,7 +14592,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
       <c r="D23" s="2" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -14547,7 +14600,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -14555,7 +14608,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="6"/>
       <c r="D25" s="2" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="E25" s="6"/>
     </row>
@@ -14563,7 +14616,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="6"/>
       <c r="D26" s="2" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -14571,7 +14624,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -14579,21 +14632,21 @@
       <c r="B28" s="4"/>
       <c r="C28" s="6"/>
       <c r="D28" s="8" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="E28" s="6"/>
       <c r="I28" s="1" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="4"/>
       <c r="C29" s="6"/>
       <c r="D29" s="2" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -14601,7 +14654,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="2" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="2:5">
@@ -14609,14 +14662,14 @@
       <c r="C31" s="6"/>
       <c r="D31" s="2"/>
       <c r="E31" s="9" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="4"/>
       <c r="C32" s="6"/>
       <c r="D32" s="2" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -14624,7 +14677,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="6"/>
       <c r="D33" s="2" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -14632,7 +14685,7 @@
       <c r="B34" s="4"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="E34" s="6"/>
     </row>
@@ -14640,7 +14693,7 @@
       <c r="B35" s="4"/>
       <c r="C35" s="6"/>
       <c r="D35" s="2" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="E35" s="6"/>
     </row>
@@ -14653,7 +14706,7 @@
     <row r="37" spans="2:5">
       <c r="B37" s="4"/>
       <c r="C37" s="6" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -14661,10 +14714,10 @@
     <row r="38" spans="2:5">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="E38" s="6"/>
     </row>
@@ -14672,7 +14725,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E39" s="6"/>
     </row>
